--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N2">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P2">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q2">
-        <v>0.6212513154204444</v>
+        <v>0.08857499241677778</v>
       </c>
       <c r="R2">
-        <v>5.591261838784</v>
+        <v>0.7971749317510001</v>
       </c>
       <c r="S2">
-        <v>0.03927721903547474</v>
+        <v>0.008347591500391478</v>
       </c>
       <c r="T2">
-        <v>0.03927721903547474</v>
+        <v>0.008347591500391476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P3">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q3">
-        <v>2.230411340821334</v>
+        <v>1.777722320737333</v>
       </c>
       <c r="R3">
-        <v>20.073702067392</v>
+        <v>15.999500886636</v>
       </c>
       <c r="S3">
-        <v>0.1410127473345604</v>
+        <v>0.1675382557733333</v>
       </c>
       <c r="T3">
-        <v>0.1410127473345604</v>
+        <v>0.1675382557733333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N4">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P4">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q4">
-        <v>0.4696998174879999</v>
+        <v>0.2397962998147778</v>
       </c>
       <c r="R4">
-        <v>4.227298357392</v>
+        <v>2.158166698333</v>
       </c>
       <c r="S4">
-        <v>0.02969571597593042</v>
+        <v>0.02259917274099593</v>
       </c>
       <c r="T4">
-        <v>0.02969571597593042</v>
+        <v>0.02259917274099593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N5">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P5">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q5">
-        <v>1.430356933648</v>
+        <v>0.255864048484</v>
       </c>
       <c r="R5">
-        <v>12.873212402832</v>
+        <v>2.302776436356</v>
       </c>
       <c r="S5">
-        <v>0.09043110442958377</v>
+        <v>0.02411344893297694</v>
       </c>
       <c r="T5">
-        <v>0.09043110442958377</v>
+        <v>0.02411344893297694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P6">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q6">
         <v>5.135255647824</v>
@@ -818,10 +818,10 @@
         <v>46.217300830416</v>
       </c>
       <c r="S6">
-        <v>0.3246650041235541</v>
+        <v>0.4839629700040835</v>
       </c>
       <c r="T6">
-        <v>0.324665004123554</v>
+        <v>0.4839629700040836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N7">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P7">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q7">
-        <v>1.081427715324</v>
+        <v>0.692692716172</v>
       </c>
       <c r="R7">
-        <v>9.732849437915998</v>
+        <v>6.234234445548</v>
       </c>
       <c r="S7">
-        <v>0.06837083832501445</v>
+        <v>0.06528158425001675</v>
       </c>
       <c r="T7">
-        <v>0.06837083832501444</v>
+        <v>0.06528158425001675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.287649333333333</v>
+        <v>0.2303363333333333</v>
       </c>
       <c r="N8">
-        <v>3.862948</v>
+        <v>0.691009</v>
       </c>
       <c r="O8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="P8">
-        <v>0.1870471291026541</v>
+        <v>0.0420565315194687</v>
       </c>
       <c r="Q8">
-        <v>0.9069330594617777</v>
+        <v>0.1018162604323333</v>
       </c>
       <c r="R8">
-        <v>8.162397535156</v>
+        <v>0.9163463438909999</v>
       </c>
       <c r="S8">
-        <v>0.05733880563759562</v>
+        <v>0.009595491086100276</v>
       </c>
       <c r="T8">
-        <v>0.05733880563759563</v>
+        <v>0.009595491086100276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264226</v>
       </c>
       <c r="P9">
-        <v>0.6715350578151914</v>
+        <v>0.8440851393264227</v>
       </c>
       <c r="Q9">
-        <v>3.256063578425333</v>
+        <v>2.043477891964</v>
       </c>
       <c r="R9">
-        <v>29.304572205828</v>
+        <v>18.391301027676</v>
       </c>
       <c r="S9">
-        <v>0.205857306357077</v>
+        <v>0.1925839135490058</v>
       </c>
       <c r="T9">
-        <v>0.205857306357077</v>
+        <v>0.1925839135490058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9735329999999999</v>
+        <v>0.6235823333333333</v>
       </c>
       <c r="N10">
-        <v>2.920599</v>
+        <v>1.870747</v>
       </c>
       <c r="O10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="P10">
-        <v>0.1414178130821545</v>
+        <v>0.1138583291541087</v>
       </c>
       <c r="Q10">
-        <v>0.6856907694669999</v>
+        <v>0.2756439695503333</v>
       </c>
       <c r="R10">
-        <v>6.171216925203</v>
+        <v>2.480795725953</v>
       </c>
       <c r="S10">
-        <v>0.04335125878120962</v>
+        <v>0.02597757216309604</v>
       </c>
       <c r="T10">
-        <v>0.04335125878120962</v>
+        <v>0.02597757216309604</v>
       </c>
     </row>
   </sheetData>
